--- a/memoire/docs/query_elements.xlsx
+++ b/memoire/docs/query_elements.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francesco.monti\Desktop\memoire\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\Git\tesi_internes\memoire\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C1B0ED-FFA5-4F6B-867A-070FB0472ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="intervention" sheetId="1" r:id="rId1"/>
-    <sheet name="chirurgical disinfection" sheetId="2" r:id="rId2"/>
-    <sheet name="cim10" sheetId="3" r:id="rId3"/>
-    <sheet name="lucene_query" sheetId="4" r:id="rId4"/>
+    <sheet name="implants" sheetId="5" r:id="rId2"/>
+    <sheet name="chirurgical disinfection" sheetId="2" r:id="rId3"/>
+    <sheet name="cim10" sheetId="3" r:id="rId4"/>
+    <sheet name="lucene_query" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="394">
   <si>
     <t>LHMH001</t>
   </si>
@@ -1746,12 +1748,156 @@
       </rPr>
       <t xml:space="preserve"> "incision et évacuation"~3</t>
     </r>
+  </si>
+  <si>
+    <t>ligament articulaire artificiel rachis, remplacement ou renfort,implanet</t>
+  </si>
+  <si>
+    <t>osteosynthese, clou centromedullaire verrouillable, os longs,fractures associees</t>
+  </si>
+  <si>
+    <t>osteosynthese, syst ancrage tendineux ou ligament, non resorb,implanet</t>
+  </si>
+  <si>
+    <t>osteosynthese, syst ancrage tendineux ou ligament, non resorb,tornier</t>
+  </si>
+  <si>
+    <t>osteosynthese, vis autotaraudeuse, quel qu'en soit le type</t>
+  </si>
+  <si>
+    <t>osteosynthese, vis perforee</t>
+  </si>
+  <si>
+    <t>rachis, cage cervicale - verrouillage - substitut osseux,medicrea</t>
+  </si>
+  <si>
+    <t>rachis, cage cervicale - verrouillage - substitut osseux,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, cage cervicale + verrouillage - substitut osseux,medicrea</t>
+  </si>
+  <si>
+    <t>rachis, cage cervicale + verrouillage - substitut osseux,spineart</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,adsm</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,eurospine</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,global s</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,h.p.i.</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,medicrea</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,osd</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,spineart</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,spinevision</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,stryker</t>
+  </si>
+  <si>
+    <t>rachis, cage intersomatique ou equivalent,zimmer biomet</t>
+  </si>
+  <si>
+    <t>rachis, cage thor/lomb - verrouillage - substitut osseux,h.p.i.</t>
+  </si>
+  <si>
+    <t>rachis, cage thor/lomb - verrouillage - substitut osseux,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, cage thor/lomb + verrouillage - substitut osseux,spinevision</t>
+  </si>
+  <si>
+    <t>rachis, cage thor/lomb + verrouillage - substitut osseux,zimmer biomet</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, crochet, pince-crochet,atf</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, crochet, pince-crochet,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, fil de cerclage, cable,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, vis pediculaire cervicale,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, vis pediculaire cervicale,spineart</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, vis pediculaire.,medicrea</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, vis pediculaire.,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, vis pediculaire.,neo medical</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, vis pediculaire.,stryker</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, vis specifique simple,medicrea</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, vis specifique simple,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, implant d'ancrage, vis specifique simple,stryker</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union longitudinale, cadre,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union longitudinale, connecteur,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union longitudinale, plaque,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union longitudinale, plaque,spineart</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union longitudinale, plaque,stryker</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union longitudinale, plaque,zimmer biomet</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union longitudinale, tige,medtronic</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union longitudinale, tige,neo medical</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union longitudinale, tige,stryker</t>
+  </si>
+  <si>
+    <t>rachis, implant d'union transversale,medtronic</t>
+  </si>
+  <si>
+    <t>implant_label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1847,9 +1993,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1864,9 +2009,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2143,21 +2289,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="139.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="139.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
@@ -2166,7 +2312,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2321,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2330,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2339,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2348,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2211,7 +2357,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2366,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2229,7 +2375,7 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2238,7 +2384,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2247,7 +2393,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2256,7 +2402,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2265,7 +2411,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2274,7 +2420,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2283,7 +2429,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2292,7 +2438,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -2301,7 +2447,7 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -2310,7 +2456,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -2319,7 +2465,7 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -2328,7 +2474,7 @@
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2337,7 +2483,7 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2346,7 +2492,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -2355,7 +2501,7 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2364,7 +2510,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2373,7 +2519,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2382,7 +2528,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2391,7 +2537,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -2400,7 +2546,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2409,7 +2555,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -2418,7 +2564,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -2427,7 +2573,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -2436,7 +2582,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -2445,7 +2591,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -2454,7 +2600,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -2463,7 +2609,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
@@ -2472,7 +2618,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -2481,7 +2627,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
@@ -2490,7 +2636,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -2499,7 +2645,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -2508,7 +2654,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
@@ -2517,7 +2663,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
@@ -2526,7 +2672,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -2535,7 +2681,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
@@ -2544,7 +2690,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
@@ -2553,7 +2699,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -2562,7 +2708,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
@@ -2571,7 +2717,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
@@ -2580,7 +2726,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -2589,7 +2735,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -2598,7 +2744,7 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -2607,7 +2753,7 @@
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -2616,7 +2762,7 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>100</v>
       </c>
@@ -2625,7 +2771,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>102</v>
       </c>
@@ -2634,7 +2780,7 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -2643,7 +2789,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>106</v>
       </c>
@@ -2652,7 +2798,7 @@
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>108</v>
       </c>
@@ -2661,7 +2807,7 @@
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>110</v>
       </c>
@@ -2670,7 +2816,7 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -2679,7 +2825,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>114</v>
       </c>
@@ -2688,7 +2834,7 @@
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -2697,7 +2843,7 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -2706,7 +2852,7 @@
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -2715,7 +2861,7 @@
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -2724,7 +2870,7 @@
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -2733,7 +2879,7 @@
       </c>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>126</v>
       </c>
@@ -2742,7 +2888,7 @@
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>128</v>
       </c>
@@ -2751,7 +2897,7 @@
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>130</v>
       </c>
@@ -2760,7 +2906,7 @@
       </c>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
@@ -2769,7 +2915,7 @@
       </c>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -2778,7 +2924,7 @@
       </c>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>136</v>
       </c>
@@ -2787,7 +2933,7 @@
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>138</v>
       </c>
@@ -2796,7 +2942,7 @@
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>140</v>
       </c>
@@ -2805,7 +2951,7 @@
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>142</v>
       </c>
@@ -2814,7 +2960,7 @@
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>144</v>
       </c>
@@ -2823,7 +2969,7 @@
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>146</v>
       </c>
@@ -2832,7 +2978,7 @@
       </c>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>148</v>
       </c>
@@ -2841,7 +2987,7 @@
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>150</v>
       </c>
@@ -2850,7 +2996,7 @@
       </c>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>152</v>
       </c>
@@ -2859,7 +3005,7 @@
       </c>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>154</v>
       </c>
@@ -2868,7 +3014,7 @@
       </c>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>156</v>
       </c>
@@ -2877,7 +3023,7 @@
       </c>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>158</v>
       </c>
@@ -2886,7 +3032,7 @@
       </c>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>160</v>
       </c>
@@ -2895,7 +3041,7 @@
       </c>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>162</v>
       </c>
@@ -2904,7 +3050,7 @@
       </c>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>164</v>
       </c>
@@ -2913,7 +3059,7 @@
       </c>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>166</v>
       </c>
@@ -2922,7 +3068,7 @@
       </c>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>168</v>
       </c>
@@ -2931,7 +3077,7 @@
       </c>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>170</v>
       </c>
@@ -2940,7 +3086,7 @@
       </c>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>172</v>
       </c>
@@ -2949,7 +3095,7 @@
       </c>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
@@ -2958,7 +3104,7 @@
       </c>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>176</v>
       </c>
@@ -2967,7 +3113,7 @@
       </c>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>178</v>
       </c>
@@ -2976,7 +3122,7 @@
       </c>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>180</v>
       </c>
@@ -2985,7 +3131,7 @@
       </c>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>182</v>
       </c>
@@ -2994,7 +3140,7 @@
       </c>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>184</v>
       </c>
@@ -3003,7 +3149,7 @@
       </c>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>186</v>
       </c>
@@ -3012,7 +3158,7 @@
       </c>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>188</v>
       </c>
@@ -3021,7 +3167,7 @@
       </c>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>190</v>
       </c>
@@ -3030,7 +3176,7 @@
       </c>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>192</v>
       </c>
@@ -3039,7 +3185,7 @@
       </c>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>194</v>
       </c>
@@ -3048,7 +3194,7 @@
       </c>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>196</v>
       </c>
@@ -3057,7 +3203,7 @@
       </c>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>198</v>
       </c>
@@ -3066,7 +3212,7 @@
       </c>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>200</v>
       </c>
@@ -3075,7 +3221,7 @@
       </c>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>202</v>
       </c>
@@ -3084,7 +3230,7 @@
       </c>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>204</v>
       </c>
@@ -3093,7 +3239,7 @@
       </c>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>206</v>
       </c>
@@ -3102,7 +3248,7 @@
       </c>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>208</v>
       </c>
@@ -3111,7 +3257,7 @@
       </c>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>210</v>
       </c>
@@ -3120,7 +3266,7 @@
       </c>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>212</v>
       </c>
@@ -3129,7 +3275,7 @@
       </c>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>214</v>
       </c>
@@ -3138,7 +3284,7 @@
       </c>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>216</v>
       </c>
@@ -3147,7 +3293,7 @@
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>218</v>
       </c>
@@ -3156,7 +3302,7 @@
       </c>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>220</v>
       </c>
@@ -3165,7 +3311,7 @@
       </c>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>222</v>
       </c>
@@ -3174,7 +3320,7 @@
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>224</v>
       </c>
@@ -3183,7 +3329,7 @@
       </c>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>226</v>
       </c>
@@ -3192,7 +3338,7 @@
       </c>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>228</v>
       </c>
@@ -3201,7 +3347,7 @@
       </c>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>230</v>
       </c>
@@ -3210,7 +3356,7 @@
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>232</v>
       </c>
@@ -3219,7 +3365,7 @@
       </c>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>234</v>
       </c>
@@ -3228,7 +3374,7 @@
       </c>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>236</v>
       </c>
@@ -3237,7 +3383,7 @@
       </c>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>238</v>
       </c>
@@ -3246,7 +3392,7 @@
       </c>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>240</v>
       </c>
@@ -3255,7 +3401,7 @@
       </c>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>242</v>
       </c>
@@ -3264,7 +3410,7 @@
       </c>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>244</v>
       </c>
@@ -3273,7 +3419,7 @@
       </c>
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>246</v>
       </c>
@@ -3282,7 +3428,7 @@
       </c>
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>248</v>
       </c>
@@ -3291,7 +3437,7 @@
       </c>
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>250</v>
       </c>
@@ -3300,7 +3446,7 @@
       </c>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>252</v>
       </c>
@@ -3309,7 +3455,7 @@
       </c>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>254</v>
       </c>
@@ -3318,7 +3464,7 @@
       </c>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>256</v>
       </c>
@@ -3327,7 +3473,7 @@
       </c>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>258</v>
       </c>
@@ -3336,7 +3482,7 @@
       </c>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>260</v>
       </c>
@@ -3345,7 +3491,7 @@
       </c>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>262</v>
       </c>
@@ -3354,7 +3500,7 @@
       </c>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>264</v>
       </c>
@@ -3363,7 +3509,7 @@
       </c>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>266</v>
       </c>
@@ -3372,7 +3518,7 @@
       </c>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>268</v>
       </c>
@@ -3381,7 +3527,7 @@
       </c>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>270</v>
       </c>
@@ -3390,7 +3536,7 @@
       </c>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>272</v>
       </c>
@@ -3399,7 +3545,7 @@
       </c>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>274</v>
       </c>
@@ -3408,7 +3554,7 @@
       </c>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>276</v>
       </c>
@@ -3417,7 +3563,7 @@
       </c>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>278</v>
       </c>
@@ -3426,7 +3572,7 @@
       </c>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>280</v>
       </c>
@@ -3435,7 +3581,7 @@
       </c>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>282</v>
       </c>
@@ -3444,7 +3590,7 @@
       </c>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>284</v>
       </c>
@@ -3453,7 +3599,7 @@
       </c>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>286</v>
       </c>
@@ -3462,7 +3608,7 @@
       </c>
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>288</v>
       </c>
@@ -3471,7 +3617,7 @@
       </c>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>290</v>
       </c>
@@ -3480,7 +3626,7 @@
       </c>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>292</v>
       </c>
@@ -3489,7 +3635,7 @@
       </c>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>294</v>
       </c>
@@ -3498,7 +3644,7 @@
       </c>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>296</v>
       </c>
@@ -3507,7 +3653,7 @@
       </c>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>298</v>
       </c>
@@ -3516,7 +3662,7 @@
       </c>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3528,19 +3674,277 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA072AA-DD85-4842-827D-A50F0A09C07F}">
+  <dimension ref="A1:A48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="119" style="5" customWidth="1"/>
+    <col min="2" max="2" width="119" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>300</v>
       </c>
@@ -3548,15 +3952,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>303</v>
       </c>
@@ -3564,183 +3968,44 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>304</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>307</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>313</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="171.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3749,25 +4014,164 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="171.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>338</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="120.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="120.109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:1" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>345</v>
       </c>
     </row>
